--- a/biology/Botanique/Coelostegia/Coelostegia.xlsx
+++ b/biology/Botanique/Coelostegia/Coelostegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelostegia est un genre d'arbres émergents de très grande taille de la famille des Bombacaceae ou des Malvaceae.
-Les arbres dits arbres émergents dominent la canopée[2] (à plus de 40 m de hauteur par exemple dans les forêts de Bornéo et Sumatra).
+Les arbres dits arbres émergents dominent la canopée (à plus de 40 m de hauteur par exemple dans les forêts de Bornéo et Sumatra).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon [réf. nécessaire] :
 Coelostegia borneensis Becc.
@@ -521,7 +535,7 @@
 Coelostegia kostermansii Soeg.Reksod.
 Coelostegia montana K.Sidiyasa
 Coelostegia neesiocarpa Soeg.Reksod
-Selon NCBI  (29 janv. 2016)[3] :
+Selon NCBI  (29 janv. 2016) :
 Coelostegia borneensis Becc</t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelostegia griffithii et originaire de Malaisie et Sumatra, les autres espèces sont originaires de Bornéo.
 </t>
